--- a/financial_data/eval_metrics_by_sectors.xlsx
+++ b/financial_data/eval_metrics_by_sectors.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>eval_metrics</t>
+          <t>metrics</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
